--- a/data/TD.xlsx
+++ b/data/TD.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr date1904="false"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,15 +38,14 @@
   <si>
     <t xml:space="preserve">LeapYear</t>
   </si>
-  <si>
-    <t xml:space="preserve">floor_date</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -83,7 +82,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,8 +92,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H337" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H337"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:H397" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H397"/>
   <tableColumns count="8">
     <tableColumn id="1" name="date"/>
     <tableColumn id="2" name="Monday"/>
@@ -110,10 +109,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H113" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:H113"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H133" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:H133"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="floor_date"/>
+    <tableColumn id="1" name="date"/>
     <tableColumn id="2" name="Monday"/>
     <tableColumn id="3" name="Tuesday"/>
     <tableColumn id="4" name="Wednesday"/>
@@ -404,12 +403,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -9170,6 +9169,1566 @@
         <v>-0.000000000000000888178419700125</v>
       </c>
       <c r="H337" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="E338" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="F338" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0</v>
+      </c>
+      <c r="D339" t="n">
+        <v>0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>0</v>
+      </c>
+      <c r="F339" t="n">
+        <v>0</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0</v>
+      </c>
+      <c r="H339" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.711127004235269</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1.50794786016805</v>
+      </c>
+      <c r="E340" t="n">
+        <v>1.50794786016805</v>
+      </c>
+      <c r="F340" t="n">
+        <v>1.81271657626888</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="H340" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-1.71112700423527</v>
+      </c>
+      <c r="C341" t="n">
+        <v>-1.50794786016805</v>
+      </c>
+      <c r="D341" t="n">
+        <v>-1.50794786016805</v>
+      </c>
+      <c r="E341" t="n">
+        <v>-1.50794786016805</v>
+      </c>
+      <c r="F341" t="n">
+        <v>-1.81271657626888</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-0.507947860168049</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="E342" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="F342" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="C343" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="D343" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="E343" t="n">
+        <v>1</v>
+      </c>
+      <c r="F343" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C344" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D344" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E344" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F344" t="n">
+        <v>-2</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H344" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1</v>
+      </c>
+      <c r="E345" t="n">
+        <v>1</v>
+      </c>
+      <c r="F345" t="n">
+        <v>0</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H345" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0</v>
+      </c>
+      <c r="D346" t="n">
+        <v>0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>0</v>
+      </c>
+      <c r="F346" t="n">
+        <v>1</v>
+      </c>
+      <c r="G346" t="n">
+        <v>1</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0</v>
+      </c>
+      <c r="D347" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E347" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F347" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H347" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-1.42857142857143</v>
+      </c>
+      <c r="C348" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="D348" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E348" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="F348" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-1.71428571428571</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="C349" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="D349" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E349" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2</v>
+      </c>
+      <c r="G349" t="n">
+        <v>2</v>
+      </c>
+      <c r="H349" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="F350" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0</v>
+      </c>
+      <c r="D351" t="n">
+        <v>0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>1</v>
+      </c>
+      <c r="F351" t="n">
+        <v>0</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0.750000000000004</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-1.28887299576473</v>
+      </c>
+      <c r="C352" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="D352" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="E352" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="F352" t="n">
+        <v>-1.18728342373112</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="H352" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1.28887299576473</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1.49205213983195</v>
+      </c>
+      <c r="D353" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="E353" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="F353" t="n">
+        <v>1.18728342373112</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-1.42857142857143</v>
+      </c>
+      <c r="C354" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="D354" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="E354" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="F354" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-1.71428571428571</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C355" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="D355" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="E355" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="F355" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="G355" t="n">
+        <v>1</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1</v>
+      </c>
+      <c r="E356" t="n">
+        <v>0</v>
+      </c>
+      <c r="F356" t="n">
+        <v>0</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0</v>
+      </c>
+      <c r="H356" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0</v>
+      </c>
+      <c r="D357" t="n">
+        <v>0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>1</v>
+      </c>
+      <c r="F357" t="n">
+        <v>1</v>
+      </c>
+      <c r="G357" t="n">
+        <v>1</v>
+      </c>
+      <c r="H357" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1</v>
+      </c>
+      <c r="E359" t="n">
+        <v>1</v>
+      </c>
+      <c r="F359" t="n">
+        <v>0</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0</v>
+      </c>
+      <c r="H359" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-0.428571428571429</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="D360" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E360" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="F360" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="H360" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>45627</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="C361" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D361" t="n">
+        <v>-2</v>
+      </c>
+      <c r="E361" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F361" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H361" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="C362" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="D362" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="E362" t="n">
+        <v>1</v>
+      </c>
+      <c r="F362" t="n">
+        <v>1</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>0</v>
+      </c>
+      <c r="D363" t="n">
+        <v>0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>0</v>
+      </c>
+      <c r="F363" t="n">
+        <v>0</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0</v>
+      </c>
+      <c r="H363" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>45717</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.711127004235269</v>
+      </c>
+      <c r="C364" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="D364" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="E364" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="F364" t="n">
+        <v>-0.187283423731122</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="H364" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-0.711127004235269</v>
+      </c>
+      <c r="C365" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="D365" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="E365" t="n">
+        <v>-0.507947860168049</v>
+      </c>
+      <c r="F365" t="n">
+        <v>-0.812716576268879</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-0.507947860168049</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>45778</v>
+      </c>
+      <c r="B366" t="n">
+        <v>-0.428571428571429</v>
+      </c>
+      <c r="C366" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="D366" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E366" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="F366" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="G366" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>45809</v>
+      </c>
+      <c r="B367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C367" t="n">
+        <v>-2</v>
+      </c>
+      <c r="D367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H367" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1</v>
+      </c>
+      <c r="E368" t="n">
+        <v>1</v>
+      </c>
+      <c r="F368" t="n">
+        <v>0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0</v>
+      </c>
+      <c r="H368" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>45870</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C369" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D369" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E369" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F369" t="n">
+        <v>0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0</v>
+      </c>
+      <c r="H369" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>45901</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0</v>
+      </c>
+      <c r="F370" t="n">
+        <v>0</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1</v>
+      </c>
+      <c r="E371" t="n">
+        <v>1</v>
+      </c>
+      <c r="F371" t="n">
+        <v>1</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0</v>
+      </c>
+      <c r="H371" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>45962</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-0.428571428571429</v>
+      </c>
+      <c r="C372" t="n">
+        <v>-1.71428571428571</v>
+      </c>
+      <c r="D372" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="E372" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="F372" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>45992</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F373" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="H373" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="C374" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="D374" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="E374" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1</v>
+      </c>
+      <c r="G374" t="n">
+        <v>1</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>46054</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0</v>
+      </c>
+      <c r="F375" t="n">
+        <v>0</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0</v>
+      </c>
+      <c r="H375" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>46082</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.711127004235269</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="D376" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="E376" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="F376" t="n">
+        <v>-0.187283423731122</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="H376" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-0.711127004235269</v>
+      </c>
+      <c r="C377" t="n">
+        <v>-0.507947860168049</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.492052139831951</v>
+      </c>
+      <c r="F377" t="n">
+        <v>-0.812716576268879</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-0.507947860168049</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>46143</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-1.42857142857143</v>
+      </c>
+      <c r="C378" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="D378" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="E378" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="F378" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H378" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>46174</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+      <c r="C379" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="D379" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E379" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="F379" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="H379" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>46204</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>0</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="n">
+        <v>1</v>
+      </c>
+      <c r="F380" t="n">
+        <v>1</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>46235</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D381" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E381" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F381" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>46266</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>46296</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>0</v>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>1</v>
+      </c>
+      <c r="F383" t="n">
+        <v>1</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1</v>
+      </c>
+      <c r="H383" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>46327</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="C384" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="D384" t="n">
+        <v>-1.71428571428571</v>
+      </c>
+      <c r="E384" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="F384" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="G384" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="H384" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>46357</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D385" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="E385" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F385" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G385" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H385" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>46388</v>
+      </c>
+      <c r="B386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F386" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G386" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="H386" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>46419</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0</v>
+      </c>
+      <c r="D387" t="n">
+        <v>0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>0</v>
+      </c>
+      <c r="F387" t="n">
+        <v>0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>46447</v>
+      </c>
+      <c r="B388" t="n">
+        <v>-1.28887299576473</v>
+      </c>
+      <c r="C388" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="D388" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="E388" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="F388" t="n">
+        <v>-2.18728342373112</v>
+      </c>
+      <c r="G388" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="H388" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>46478</v>
+      </c>
+      <c r="B389" t="n">
+        <v>2.28887299576473</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1.49205213983195</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1.49205213983195</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2.49205213983195</v>
+      </c>
+      <c r="F389" t="n">
+        <v>3.18728342373112</v>
+      </c>
+      <c r="G389" t="n">
+        <v>1.49205213983195</v>
+      </c>
+      <c r="H389" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>46508</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.571428571428571</v>
+      </c>
+      <c r="C390" t="n">
+        <v>-1.71428571428571</v>
+      </c>
+      <c r="D390" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="E390" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="F390" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="G390" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="H390" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>46539</v>
+      </c>
+      <c r="B391" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="E391" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F391" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="G391" t="n">
+        <v>-0.000000000000000222044604925031</v>
+      </c>
+      <c r="H391" t="n">
+        <v>0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>46569</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>0</v>
+      </c>
+      <c r="D392" t="n">
+        <v>0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>1</v>
+      </c>
+      <c r="F392" t="n">
+        <v>1</v>
+      </c>
+      <c r="G392" t="n">
+        <v>1</v>
+      </c>
+      <c r="H392" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>46600</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0</v>
+      </c>
+      <c r="D393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G393" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H393" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>46631</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1</v>
+      </c>
+      <c r="E394" t="n">
+        <v>1</v>
+      </c>
+      <c r="F394" t="n">
+        <v>0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0</v>
+      </c>
+      <c r="H394" t="n">
+        <v>0.0000000000000035527136788005</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>46661</v>
+      </c>
+      <c r="B395" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C395" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D395" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E395" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F395" t="n">
+        <v>0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0</v>
+      </c>
+      <c r="H395" t="n">
+        <v>-0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>46692</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1.57142857142857</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1.28571428571429</v>
+      </c>
+      <c r="D396" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="E396" t="n">
+        <v>-0.714285714285714</v>
+      </c>
+      <c r="F396" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.285714285714286</v>
+      </c>
+      <c r="H396" t="n">
+        <v>0.000000000000007105427357601</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>46722</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="C397" t="n">
+        <v>0.999999999999999</v>
+      </c>
+      <c r="D397" t="n">
+        <v>2</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2</v>
+      </c>
+      <c r="F397" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="G397" t="n">
+        <v>-0.000000000000000888178419700125</v>
+      </c>
+      <c r="H397" t="n">
         <v>-0.0000000000000106581410364015</v>
       </c>
     </row>
@@ -9183,16 +10742,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -9458,7 +11017,7 @@
         <v>1.28887299576473</v>
       </c>
       <c r="C11" t="n">
-        <v>0.49205213983195</v>
+        <v>0.492052139831951</v>
       </c>
       <c r="D11" t="n">
         <v>1.49205213983195</v>
@@ -9724,7 +11283,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.000000000000000666133814775094</v>
+        <v>-0.000000000000000444089209850063</v>
       </c>
       <c r="F21" t="n">
         <v>0.999999999999999</v>
@@ -10244,7 +11803,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.000000000000000666133814775094</v>
+        <v>-0.000000000000000444089209850063</v>
       </c>
       <c r="F41" t="n">
         <v>0.999999999999999</v>
@@ -10351,7 +11910,7 @@
         <v>0.999999999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.000000000000000666133814775094</v>
+        <v>-0.000000000000000444089209850063</v>
       </c>
       <c r="G45" t="n">
         <v>0.999999999999999</v>
@@ -12125,6 +13684,526 @@
         <v>0.285714285714285</v>
       </c>
       <c r="H113" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1.71112700423527</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.50794786016805</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.50794786016805</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.50794786016805</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.81271657626888</v>
+      </c>
+      <c r="G114" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="H114" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B115" t="n">
+        <v>-1.1396984328067</v>
+      </c>
+      <c r="C115" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="E115" t="n">
+        <v>-1.22223357445376</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-1.52700229055459</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-1.22223357445376</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B116" t="n">
+        <v>-2</v>
+      </c>
+      <c r="C116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B117" t="n">
+        <v>-1.42857142857143</v>
+      </c>
+      <c r="C117" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="H117" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B118" t="n">
+        <v>-1.28887299576473</v>
+      </c>
+      <c r="C118" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="E118" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-1.18728342373112</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.750000000000004</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B119" t="n">
+        <v>-1.1396984328067</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.777766425546236</v>
+      </c>
+      <c r="D119" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.777766425546236</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.47299770944541</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B121" t="n">
+        <v>-0.42857142857143</v>
+      </c>
+      <c r="C121" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="D121" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="E121" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="G121" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="H121" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.711127004235269</v>
+      </c>
+      <c r="C122" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="D122" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.812716576268878</v>
+      </c>
+      <c r="G122" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="H122" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>45748</v>
+      </c>
+      <c r="B123" t="n">
+        <v>-2.1396984328067</v>
+      </c>
+      <c r="C123" t="n">
+        <v>-1.22223357445376</v>
+      </c>
+      <c r="D123" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="E123" t="n">
+        <v>-1.22223357445376</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.527002290554593</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>45839</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>45931</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.57142857142857</v>
+      </c>
+      <c r="C125" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="D125" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="E125" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="G125" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="H125" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>46023</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.711127004235269</v>
+      </c>
+      <c r="C126" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="D126" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="E126" t="n">
+        <v>-0.492052139831951</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.812716576268878</v>
+      </c>
+      <c r="G126" t="n">
+        <v>0.507947860168049</v>
+      </c>
+      <c r="H126" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>46113</v>
+      </c>
+      <c r="B127" t="n">
+        <v>-1.1396984328067</v>
+      </c>
+      <c r="C127" t="n">
+        <v>-1.22223357445376</v>
+      </c>
+      <c r="D127" t="n">
+        <v>-1.22223357445376</v>
+      </c>
+      <c r="E127" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-1.52700229055459</v>
+      </c>
+      <c r="G127" t="n">
+        <v>-0.222233574453764</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>46204</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>46296</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.57142857142857</v>
+      </c>
+      <c r="C129" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="E129" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="G129" t="n">
+        <v>-0.714285714285715</v>
+      </c>
+      <c r="H129" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>46388</v>
+      </c>
+      <c r="B130" t="n">
+        <v>-2.28887299576473</v>
+      </c>
+      <c r="C130" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="E130" t="n">
+        <v>-2.49205213983195</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-3.18728342373112</v>
+      </c>
+      <c r="G130" t="n">
+        <v>-1.49205213983195</v>
+      </c>
+      <c r="H130" t="n">
+        <v>-0.249999999999996</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>46478</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2.8603015671933</v>
+      </c>
+      <c r="C131" t="n">
+        <v>0.777766425546236</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.777766425546236</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.777766425546236</v>
+      </c>
+      <c r="F131" t="n">
+        <v>2.47299770944541</v>
+      </c>
+      <c r="G131" t="n">
+        <v>0.777766425546236</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0000000000000248689957516035</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>46569</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>-0.0000000000000106581410364015</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>46661</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1.57142857142857</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.28571428571428</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.28571428571428</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="G133" t="n">
+        <v>0.285714285714285</v>
+      </c>
+      <c r="H133" t="n">
         <v>-0.0000000000000106581410364015</v>
       </c>
     </row>

--- a/data/TD.xlsx
+++ b/data/TD.xlsx
@@ -9281,22 +9281,22 @@
         <v>45047</v>
       </c>
       <c r="B342" t="n">
-        <v>0.571428571428571</v>
+        <v>-1.42857142857143</v>
       </c>
       <c r="C342" t="n">
-        <v>1.28571428571429</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="D342" t="n">
-        <v>1.28571428571429</v>
+        <v>0.285714285714286</v>
       </c>
       <c r="E342" t="n">
+        <v>-1.71428571428571</v>
+      </c>
+      <c r="F342" t="n">
         <v>-0.714285714285714</v>
       </c>
-      <c r="F342" t="n">
-        <v>0.285714285714286</v>
-      </c>
       <c r="G342" t="n">
-        <v>0.285714285714286</v>
+        <v>-0.714285714285714</v>
       </c>
       <c r="H342" t="n">
         <v>0.0000000000000106581410364015</v>
@@ -13718,22 +13718,22 @@
         <v>45017</v>
       </c>
       <c r="B115" t="n">
-        <v>-1.1396984328067</v>
+        <v>-3.1396984328067</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.222233574453764</v>
+        <v>-1.22223357445376</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.222233574453764</v>
+        <v>-1.22223357445376</v>
       </c>
       <c r="E115" t="n">
-        <v>-1.22223357445376</v>
+        <v>-2.22223357445376</v>
       </c>
       <c r="F115" t="n">
-        <v>-1.52700229055459</v>
+        <v>-2.52700229055459</v>
       </c>
       <c r="G115" t="n">
-        <v>-1.22223357445376</v>
+        <v>-2.22223357445376</v>
       </c>
       <c r="H115" t="n">
         <v>0.0000000000000248689957516035</v>
